--- a/LNGStorageEurope.xlsx
+++ b/LNGStorageEurope.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DESKY\LNG_DB_UPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5eae1644970d9898/Documents/Glasgow/Year 4/ENG4110P Individual Project 4/Code/UK-Electricity-Pricing-Solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2350CD-DDA7-4B9E-B4A4-FCD15C12B770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{BD2350CD-DDA7-4B9E-B4A4-FCD15C12B770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0BC6860-2B7B-431F-AB5E-5B174F2A5E62}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2688" yWindow="216" windowWidth="19032" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Terminals" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Import Terminals'!$A$3:$T$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">statistics!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1326,10 +1326,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -2138,27 +2138,27 @@
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2179,13 +2179,13 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2280,41 +2280,31 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2322,14 +2312,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2345,108 +2335,105 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2475,6 +2462,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="1" fillId="0" borderId="39" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2483,57 +2521,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="47" fontId="1" fillId="0" borderId="39" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2580,6 +2567,898 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Import Terminals'!$A$5,'Import Terminals'!$A$8,'Import Terminals'!$A$12,'Import Terminals'!$A$21,'Import Terminals'!$A$31,'Import Terminals'!$A$35,'Import Terminals'!$A$41,'Import Terminals'!$A$43,'Import Terminals'!$A$44,'Import Terminals'!$A$50,'Import Terminals'!$A$52,'Import Terminals'!$A$54,'Import Terminals'!$A$62,'Import Terminals'!$A$67,'Import Terminals'!$A$71)</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Croatia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Egypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Malta</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Import Terminals'!$K$5,'Import Terminals'!$K$8,'Import Terminals'!$K$12,'Import Terminals'!$K$21,'Import Terminals'!$K$31,'Import Terminals'!$K$35,'Import Terminals'!$K$41,'Import Terminals'!$K$43,'Import Terminals'!$K$44,'Import Terminals'!$K$50,'Import Terminals'!$K$52,'Import Terminals'!$K$54,'Import Terminals'!$K$62,'Import Terminals'!$K$67,'Import Terminals'!$K$71)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>566000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1370000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>487500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3616500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>705000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2095000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-145B-454B-8B36-87696AA3410A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="947301968"/>
+        <c:axId val="774589120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="947301968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774589120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="774589120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="947301968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2632,6 +3511,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65275FA-EDA4-CB7F-D076-220D4D631273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3091,39 +4006,38 @@
   </sheetPr>
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="L39" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="1" customWidth="1"/>
-    <col min="20" max="20" width="68.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="68.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12" t="s">
@@ -3141,7 +4055,7 @@
       <c r="M1" s="15"/>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" spans="1:20" s="16" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="16" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -3157,7 +4071,7 @@
       <c r="M2" s="15"/>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="21" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -3219,87 +4133,90 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="82">
         <v>2023</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="81" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="90"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="90"/>
+      <c r="O4" s="84"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="91"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="85"/>
+    </row>
+    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="94">
+      <c r="F5" s="88">
         <v>1987</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="87" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="9">
         <v>2000000</v>
       </c>
-      <c r="J5" s="95">
+      <c r="J5" s="89">
         <v>11.4</v>
       </c>
-      <c r="K5" s="95"/>
+      <c r="K5" s="89">
+        <f>L5</f>
+        <v>566000</v>
+      </c>
       <c r="L5" s="9">
         <f>566000</f>
         <v>566000</v>
       </c>
-      <c r="M5" s="96">
+      <c r="M5" s="90">
         <v>5</v>
       </c>
       <c r="N5" s="9">
         <v>266000</v>
       </c>
-      <c r="O5" s="96">
+      <c r="O5" s="90">
         <v>2</v>
       </c>
       <c r="P5" s="10">
@@ -3308,140 +4225,143 @@
       <c r="Q5" s="10">
         <v>80</v>
       </c>
-      <c r="R5" s="93" t="s">
+      <c r="R5" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="93"/>
-      <c r="T5" s="97" t="s">
+      <c r="S5" s="87"/>
+      <c r="T5" s="91" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="94">
+      <c r="F6" s="88">
         <v>2024</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="87" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="9">
         <v>450000</v>
       </c>
-      <c r="J6" s="95">
+      <c r="J6" s="89">
         <v>3.9</v>
       </c>
-      <c r="K6" s="95"/>
+      <c r="K6" s="89"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="96"/>
+      <c r="M6" s="90"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="96"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="97"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
+      <c r="R6" s="87"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="91"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="88">
         <v>2026</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="87" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="9">
         <v>200000</v>
       </c>
-      <c r="J7" s="95">
+      <c r="J7" s="89">
         <v>1.8</v>
       </c>
-      <c r="K7" s="95"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="96"/>
+      <c r="M7" s="90"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="96"/>
+      <c r="O7" s="90"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="97"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="92" t="s">
+      <c r="R7" s="87"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="91"/>
+    </row>
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="88">
         <v>2021</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="87" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="9">
         <v>300000</v>
       </c>
-      <c r="J8" s="95">
+      <c r="J8" s="89">
         <v>2.6</v>
       </c>
-      <c r="K8" s="95"/>
+      <c r="K8" s="89">
+        <f>L8</f>
+        <v>140000</v>
+      </c>
       <c r="L8" s="9">
         <v>140000</v>
       </c>
-      <c r="M8" s="96">
+      <c r="M8" s="90">
         <v>4</v>
       </c>
       <c r="N8" s="9">
         <v>265000</v>
       </c>
-      <c r="O8" s="96">
+      <c r="O8" s="90">
         <v>1</v>
       </c>
       <c r="P8" s="10">
@@ -3450,37 +4370,37 @@
       <c r="Q8" s="10">
         <v>100</v>
       </c>
-      <c r="R8" s="93" t="s">
+      <c r="R8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="97" t="s">
+      <c r="S8" s="87"/>
+      <c r="T8" s="91" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+    <row r="9" spans="1:20" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="96">
         <v>2029</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="101" t="s">
+      <c r="H9" s="95" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="9">
@@ -3489,17 +4409,17 @@
       <c r="J9" s="48">
         <v>2.6</v>
       </c>
-      <c r="K9" s="103"/>
+      <c r="K9" s="97"/>
       <c r="L9" s="9">
         <v>140000</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="98">
         <v>2</v>
       </c>
       <c r="N9" s="9">
         <v>265000</v>
       </c>
-      <c r="O9" s="102">
+      <c r="O9" s="96">
         <v>1</v>
       </c>
       <c r="P9" s="10">
@@ -3508,459 +4428,462 @@
       <c r="Q9" s="10">
         <v>100</v>
       </c>
-      <c r="R9" s="101" t="s">
+      <c r="R9" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="98"/>
-      <c r="T9" s="105" t="s">
+      <c r="S9" s="92"/>
+      <c r="T9" s="99" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:20" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="96">
         <v>2023</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="101" t="s">
+      <c r="H10" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="103">
+      <c r="I10" s="95"/>
+      <c r="J10" s="97">
         <v>2.44</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="107">
+      <c r="K10" s="97"/>
+      <c r="L10" s="101">
         <v>137000</v>
       </c>
-      <c r="M10" s="104"/>
-      <c r="N10" s="101">
+      <c r="M10" s="98"/>
+      <c r="N10" s="95">
         <v>217000</v>
       </c>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="93" t="s">
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="105" t="s">
+      <c r="T10" s="99" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+    <row r="11" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="100" t="s">
+      <c r="G11" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="101"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="103">
+      <c r="J11" s="97">
         <v>5.8</v>
       </c>
-      <c r="K11" s="103"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="104"/>
+      <c r="M11" s="98"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="105"/>
-    </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="99"/>
+    </row>
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="96">
         <v>2015</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="101" t="s">
+      <c r="H12" s="95" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="103">
+      <c r="J12" s="97">
         <v>7.8</v>
       </c>
-      <c r="K12" s="103"/>
+      <c r="K12" s="97">
+        <f>L12</f>
+        <v>170000</v>
+      </c>
       <c r="L12" s="9">
         <v>170000</v>
       </c>
-      <c r="M12" s="104"/>
+      <c r="M12" s="98"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="105" t="s">
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="99" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="96">
         <v>2025</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="101" t="s">
+      <c r="H13" s="95" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="103">
+      <c r="J13" s="97">
         <v>2.5</v>
       </c>
-      <c r="K13" s="103"/>
-      <c r="L13" s="107">
+      <c r="K13" s="97"/>
+      <c r="L13" s="101">
         <v>160000</v>
       </c>
-      <c r="M13" s="104"/>
+      <c r="M13" s="98"/>
       <c r="N13" s="9">
         <v>175000</v>
       </c>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="105" t="s">
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="99" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="92" t="s">
+    <row r="14" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="93" t="s">
+      <c r="F14" s="88"/>
+      <c r="G14" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="102" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="95">
+      <c r="J14" s="89">
         <v>4</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="109">
+      <c r="K14" s="89"/>
+      <c r="L14" s="103">
         <v>160000</v>
       </c>
-      <c r="M14" s="96"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
       <c r="T14" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="88">
         <v>2023</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="87" t="s">
         <v>62</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="95">
+      <c r="J15" s="89">
         <v>5</v>
       </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="109">
+      <c r="K15" s="89"/>
+      <c r="L15" s="103">
         <v>151000</v>
       </c>
-      <c r="M15" s="96"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="92" t="s">
+    <row r="16" spans="1:20" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="94">
+      <c r="F16" s="88">
         <v>2016</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="102" t="s">
         <v>65</v>
       </c>
       <c r="I16" s="9">
         <v>2100000</v>
       </c>
-      <c r="J16" s="95">
+      <c r="J16" s="89">
         <v>13</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="109">
+      <c r="K16" s="89"/>
+      <c r="L16" s="103">
         <v>600000</v>
       </c>
-      <c r="M16" s="96">
+      <c r="M16" s="90">
         <v>3</v>
       </c>
       <c r="N16" s="9">
         <v>267000</v>
       </c>
-      <c r="O16" s="108">
+      <c r="O16" s="102">
         <v>1</v>
       </c>
-      <c r="P16" s="108">
+      <c r="P16" s="102">
         <v>15</v>
       </c>
-      <c r="Q16" s="108">
+      <c r="Q16" s="102">
         <v>90</v>
       </c>
-      <c r="R16" s="108" t="s">
+      <c r="R16" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="S16" s="108"/>
+      <c r="S16" s="102"/>
       <c r="T16" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="92" t="s">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="88">
         <v>2010</v>
       </c>
-      <c r="G17" s="93" t="s">
+      <c r="G17" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="93" t="s">
+      <c r="H17" s="87" t="s">
         <v>69</v>
       </c>
       <c r="I17" s="9">
         <v>1200000</v>
       </c>
-      <c r="J17" s="95">
+      <c r="J17" s="89">
         <v>8.5</v>
       </c>
-      <c r="K17" s="95"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="9">
         <v>330000</v>
       </c>
-      <c r="M17" s="96">
+      <c r="M17" s="90">
         <v>3</v>
       </c>
       <c r="N17" s="9">
         <v>267000</v>
       </c>
-      <c r="O17" s="96">
+      <c r="O17" s="90">
         <v>1</v>
       </c>
-      <c r="P17" s="110">
+      <c r="P17" s="104">
         <v>15</v>
       </c>
-      <c r="Q17" s="110">
+      <c r="Q17" s="104">
         <v>90</v>
       </c>
-      <c r="R17" s="93" t="s">
+      <c r="R17" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S17" s="93"/>
-      <c r="T17" s="97" t="s">
+      <c r="S17" s="87"/>
+      <c r="T17" s="91" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="92" t="s">
+    <row r="18" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="88">
         <v>2022</v>
       </c>
-      <c r="G18" s="93" t="s">
+      <c r="G18" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="93" t="s">
+      <c r="H18" s="87" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="9">
         <f>MROUND(I17/J17*J18, 10000)</f>
         <v>210000</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="89">
         <f>10-J17</f>
         <v>1.5</v>
       </c>
-      <c r="K18" s="95"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="96"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="97" t="s">
+      <c r="O18" s="90"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="91" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="92" t="s">
+    <row r="19" spans="1:21" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="94">
+      <c r="F19" s="88">
         <v>2030</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="G19" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="93" t="s">
+      <c r="H19" s="87" t="s">
         <v>69</v>
       </c>
       <c r="I19" s="9">
@@ -3971,2539 +4894,2570 @@
         <f>12-J17-J18</f>
         <v>2</v>
       </c>
-      <c r="K19" s="95"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="96"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="97" t="s">
+      <c r="O19" s="90"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="91" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="88">
         <v>1972</v>
       </c>
-      <c r="G20" s="93" t="s">
+      <c r="G20" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="93" t="s">
+      <c r="H20" s="87" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="9">
         <v>230000</v>
       </c>
-      <c r="J20" s="95">
+      <c r="J20" s="89">
         <v>1.5</v>
       </c>
-      <c r="K20" s="95"/>
+      <c r="K20" s="89"/>
       <c r="L20" s="9">
         <v>80000</v>
       </c>
-      <c r="M20" s="96">
+      <c r="M20" s="90">
         <v>1</v>
       </c>
       <c r="N20" s="9">
         <v>75000</v>
       </c>
-      <c r="O20" s="96">
+      <c r="O20" s="90">
         <v>1</v>
       </c>
-      <c r="P20" s="110">
+      <c r="P20" s="104">
         <v>12</v>
       </c>
-      <c r="Q20" s="110">
+      <c r="Q20" s="104">
         <v>67.7</v>
       </c>
-      <c r="R20" s="93" t="s">
+      <c r="R20" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="93"/>
-      <c r="T20" s="97" t="s">
+      <c r="S20" s="87"/>
+      <c r="T20" s="91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="88">
         <v>1980</v>
       </c>
-      <c r="G21" s="93" t="s">
+      <c r="G21" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="87" t="s">
         <v>72</v>
       </c>
       <c r="I21" s="9">
         <v>1600000</v>
       </c>
-      <c r="J21" s="95">
+      <c r="J21" s="89">
         <v>10</v>
       </c>
-      <c r="K21" s="95"/>
+      <c r="K21" s="89">
+        <f>SUM(L16:L21)</f>
+        <v>1370000</v>
+      </c>
       <c r="L21" s="9">
         <v>360000</v>
       </c>
-      <c r="M21" s="96">
+      <c r="M21" s="90">
         <v>3</v>
       </c>
       <c r="N21" s="9">
         <v>267000</v>
       </c>
-      <c r="O21" s="96">
+      <c r="O21" s="90">
         <v>2</v>
       </c>
-      <c r="P21" s="110">
+      <c r="P21" s="104">
         <v>13</v>
       </c>
-      <c r="Q21" s="110">
+      <c r="Q21" s="104">
         <v>80</v>
       </c>
-      <c r="R21" s="93" t="s">
+      <c r="R21" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="93"/>
-      <c r="T21" s="97" t="s">
+      <c r="S21" s="87"/>
+      <c r="T21" s="91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="92" t="s">
+    <row r="22" spans="1:21" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="93" t="s">
+      <c r="F22" s="88"/>
+      <c r="G22" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="93" t="s">
+      <c r="H22" s="87" t="s">
         <v>76</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="96"/>
+      <c r="M22" s="90"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="97"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
+      <c r="O22" s="90"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="91"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="101" t="s">
+      <c r="E23" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="102">
+      <c r="F23" s="96">
         <v>2023</v>
       </c>
-      <c r="G23" s="100" t="s">
+      <c r="G23" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="101" t="s">
+      <c r="H23" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="101"/>
-      <c r="J23" s="111">
+      <c r="I23" s="95"/>
+      <c r="J23" s="105">
         <v>5</v>
       </c>
-      <c r="K23" s="111"/>
-      <c r="L23" s="107">
+      <c r="K23" s="105"/>
+      <c r="L23" s="101">
         <f>2*165000</f>
         <v>330000</v>
       </c>
-      <c r="M23" s="104">
+      <c r="M23" s="98">
         <v>2</v>
       </c>
       <c r="N23" s="9">
         <v>267000</v>
       </c>
-      <c r="O23" s="101">
+      <c r="O23" s="95">
         <v>2</v>
       </c>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101" t="s">
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="105" t="s">
+      <c r="S23" s="95"/>
+      <c r="T23" s="99" t="s">
         <v>80</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="92" t="s">
+    <row r="24" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="108" t="s">
+      <c r="E24" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="88">
         <v>2026</v>
       </c>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="102" t="s">
         <v>83</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="112">
+      <c r="J24" s="106">
         <v>12</v>
       </c>
-      <c r="K24" s="112"/>
-      <c r="L24" s="113" t="s">
+      <c r="K24" s="106"/>
+      <c r="L24" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="96"/>
-      <c r="N24" s="114">
+      <c r="M24" s="90"/>
+      <c r="N24" s="108">
         <v>267000</v>
       </c>
-      <c r="O24" s="108">
+      <c r="O24" s="102">
         <v>2</v>
       </c>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="115" t="s">
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="92" t="s">
+    <row r="25" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="108" t="s">
+      <c r="E25" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="88">
         <v>2023</v>
       </c>
-      <c r="G25" s="93" t="s">
+      <c r="G25" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="108" t="s">
+      <c r="H25" s="102" t="s">
         <v>87</v>
       </c>
       <c r="I25" s="9">
         <v>1400000</v>
       </c>
-      <c r="J25" s="112">
+      <c r="J25" s="106">
         <v>7.5</v>
       </c>
-      <c r="K25" s="112"/>
-      <c r="L25" s="113">
+      <c r="K25" s="106"/>
+      <c r="L25" s="107">
         <v>263000</v>
       </c>
-      <c r="M25" s="96"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="115" t="s">
+      <c r="M25" s="90"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="109" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="92" t="s">
+    <row r="26" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="88">
         <v>2025</v>
       </c>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="108" t="s">
+      <c r="H26" s="102" t="s">
         <v>88</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="112">
+      <c r="J26" s="106">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K26" s="112"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="115" t="s">
+      <c r="K26" s="106"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="109" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
+    <row r="27" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="88">
         <v>2023</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="108" t="s">
+      <c r="H27" s="102" t="s">
         <v>90</v>
       </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="112">
+      <c r="J27" s="106">
         <v>4.5</v>
       </c>
-      <c r="K27" s="112"/>
-      <c r="L27" s="113">
+      <c r="K27" s="106"/>
+      <c r="L27" s="107">
         <v>170000</v>
       </c>
-      <c r="M27" s="96"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108" t="s">
+      <c r="M27" s="90"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102" t="s">
         <v>90</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="92" t="s">
+    <row r="28" spans="1:21" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="88">
         <v>2023</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="108" t="s">
+      <c r="H28" s="102" t="s">
         <v>94</v>
       </c>
       <c r="I28" s="9">
         <v>470000</v>
       </c>
-      <c r="J28" s="108">
+      <c r="J28" s="102">
         <v>2.5</v>
       </c>
-      <c r="K28" s="95"/>
+      <c r="K28" s="89"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="97" t="s">
+      <c r="M28" s="90"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="91" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="101" t="s">
+      <c r="E29" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="102">
+      <c r="F29" s="96">
         <v>2023</v>
       </c>
-      <c r="G29" s="100" t="s">
+      <c r="G29" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="101" t="s">
+      <c r="H29" s="95" t="s">
         <v>96</v>
       </c>
       <c r="I29" s="9">
         <v>944000</v>
       </c>
-      <c r="J29" s="103">
+      <c r="J29" s="97">
         <v>5.5</v>
       </c>
-      <c r="K29" s="103"/>
-      <c r="L29" s="107">
+      <c r="K29" s="97"/>
+      <c r="L29" s="101">
         <v>153500</v>
       </c>
-      <c r="M29" s="104">
+      <c r="M29" s="98">
         <v>4</v>
       </c>
-      <c r="N29" s="107">
+      <c r="N29" s="101">
         <v>170000</v>
       </c>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="116">
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="110">
         <v>100</v>
       </c>
-      <c r="R29" s="101" t="s">
+      <c r="R29" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="S29" s="102"/>
-      <c r="T29" s="105" t="s">
+      <c r="S29" s="96"/>
+      <c r="T29" s="99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="93" t="s">
+    <row r="30" spans="1:21" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="93" t="s">
+      <c r="E30" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="93" t="s">
+      <c r="F30" s="88"/>
+      <c r="G30" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="108" t="s">
+      <c r="H30" s="102" t="s">
         <v>96</v>
       </c>
       <c r="I30" s="9">
         <v>945000</v>
       </c>
-      <c r="J30" s="108">
+      <c r="J30" s="102">
         <v>5.5</v>
       </c>
-      <c r="K30" s="95"/>
+      <c r="K30" s="89"/>
       <c r="L30" s="9">
         <v>170000</v>
       </c>
-      <c r="M30" s="96"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="97"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="92" t="s">
+      <c r="M30" s="90"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="91"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="94">
+      <c r="F31" s="88">
         <v>1999</v>
       </c>
-      <c r="G31" s="93" t="s">
+      <c r="G31" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="108" t="s">
+      <c r="H31" s="102" t="s">
         <v>100</v>
       </c>
       <c r="I31" s="9">
         <v>820000</v>
       </c>
-      <c r="J31" s="108">
+      <c r="J31" s="102">
         <v>7</v>
       </c>
-      <c r="K31" s="95"/>
+      <c r="K31" s="89">
+        <f>L31</f>
+        <v>225000</v>
+      </c>
       <c r="L31" s="9">
         <v>225000</v>
       </c>
-      <c r="M31" s="96">
+      <c r="M31" s="90">
         <v>3</v>
       </c>
-      <c r="N31" s="113">
+      <c r="N31" s="107">
         <v>260000</v>
       </c>
-      <c r="O31" s="96">
+      <c r="O31" s="90">
         <v>1</v>
       </c>
-      <c r="P31" s="110">
+      <c r="P31" s="104">
         <v>13.5</v>
       </c>
-      <c r="Q31" s="110">
+      <c r="Q31" s="104">
         <v>64</v>
       </c>
-      <c r="R31" s="93" t="s">
+      <c r="R31" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S31" s="93"/>
-      <c r="T31" s="97" t="s">
+      <c r="S31" s="87"/>
+      <c r="T31" s="91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="92" t="s">
+    <row r="32" spans="1:21" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="94">
+      <c r="F32" s="88">
         <v>2024</v>
       </c>
-      <c r="G32" s="93" t="s">
+      <c r="G32" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="108" t="s">
+      <c r="H32" s="102" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="9">
         <v>885000</v>
       </c>
-      <c r="J32" s="108">
+      <c r="J32" s="102">
         <v>5.2</v>
       </c>
-      <c r="K32" s="95"/>
+      <c r="K32" s="89"/>
       <c r="L32" s="9">
         <v>170000</v>
       </c>
-      <c r="M32" s="96"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="97" t="s">
+      <c r="M32" s="90"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="91" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="99" t="s">
+    <row r="33" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="101" t="s">
+      <c r="E33" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="102"/>
-      <c r="G33" s="93" t="s">
+      <c r="F33" s="96"/>
+      <c r="G33" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="108" t="s">
+      <c r="H33" s="102" t="s">
         <v>107</v>
       </c>
       <c r="I33" s="9"/>
-      <c r="J33" s="108">
+      <c r="J33" s="102">
         <v>7.8</v>
       </c>
-      <c r="K33" s="103"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="105" t="s">
+      <c r="K33" s="97"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="99" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="99" t="s">
+    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="100" t="s">
+      <c r="D34" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="101" t="s">
+      <c r="E34" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="102">
+      <c r="F34" s="96">
         <v>2024</v>
       </c>
-      <c r="G34" s="93" t="s">
+      <c r="G34" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="101" t="s">
+      <c r="H34" s="95" t="s">
         <v>110</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="J34" s="103">
+      <c r="J34" s="97">
         <v>2.6</v>
       </c>
-      <c r="K34" s="103"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="105" t="s">
+      <c r="K34" s="97"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="99" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
+    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="93" t="s">
+      <c r="E35" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="94">
+      <c r="F35" s="88">
         <v>2013</v>
       </c>
-      <c r="G35" s="93" t="s">
+      <c r="G35" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="93" t="s">
+      <c r="H35" s="87" t="s">
         <v>114</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="95">
+      <c r="J35" s="89">
         <v>2.5</v>
       </c>
-      <c r="K35" s="95"/>
+      <c r="K35" s="89">
+        <f>L35</f>
+        <v>138000</v>
+      </c>
       <c r="L35" s="9">
         <v>138000</v>
       </c>
-      <c r="M35" s="96"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="97" t="s">
+      <c r="M35" s="90"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="92" t="s">
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="93" t="s">
+      <c r="D36" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="93" t="s">
+      <c r="E36" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="94">
+      <c r="F36" s="88">
         <v>2013</v>
       </c>
-      <c r="G36" s="93" t="s">
+      <c r="G36" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="87" t="s">
         <v>118</v>
       </c>
       <c r="I36" s="9">
         <v>592000</v>
       </c>
-      <c r="J36" s="95">
+      <c r="J36" s="89">
         <v>3.55</v>
       </c>
-      <c r="K36" s="95">
-        <v>1.19</v>
-      </c>
+      <c r="K36" s="89"/>
       <c r="L36" s="9">
         <v>137500</v>
       </c>
-      <c r="M36" s="96">
+      <c r="M36" s="90">
         <v>4</v>
       </c>
-      <c r="N36" s="113">
+      <c r="N36" s="107">
         <v>180000</v>
       </c>
-      <c r="O36" s="96"/>
-      <c r="P36" s="110">
+      <c r="O36" s="90"/>
+      <c r="P36" s="104">
         <v>113</v>
       </c>
-      <c r="Q36" s="110">
+      <c r="Q36" s="104">
         <v>80</v>
       </c>
-      <c r="R36" s="93" t="s">
+      <c r="R36" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S36" s="93"/>
-      <c r="T36" s="97" t="s">
+      <c r="S36" s="87"/>
+      <c r="T36" s="91" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="92" t="s">
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="94">
+      <c r="F37" s="88">
         <v>1971</v>
       </c>
-      <c r="G37" s="93" t="s">
+      <c r="G37" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="93" t="s">
+      <c r="H37" s="87" t="s">
         <v>121</v>
       </c>
       <c r="I37" s="9">
         <v>427000</v>
       </c>
-      <c r="J37" s="95">
+      <c r="J37" s="89">
         <v>3.4</v>
       </c>
-      <c r="K37" s="95"/>
+      <c r="K37" s="89"/>
       <c r="L37" s="9">
         <v>100000</v>
       </c>
-      <c r="M37" s="96">
+      <c r="M37" s="90">
         <v>2</v>
       </c>
-      <c r="N37" s="113">
+      <c r="N37" s="107">
         <v>70000</v>
       </c>
-      <c r="O37" s="96">
+      <c r="O37" s="90">
         <v>1</v>
       </c>
-      <c r="P37" s="110">
+      <c r="P37" s="104">
         <v>10</v>
       </c>
-      <c r="Q37" s="110">
+      <c r="Q37" s="104">
         <v>70</v>
       </c>
-      <c r="R37" s="93" t="s">
+      <c r="R37" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S37" s="93"/>
-      <c r="T37" s="97" t="s">
+      <c r="S37" s="87"/>
+      <c r="T37" s="91" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92" t="s">
+    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="93" t="s">
+      <c r="D38" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="94">
+      <c r="F38" s="88">
         <v>2023</v>
       </c>
-      <c r="G38" s="93" t="s">
+      <c r="G38" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="93" t="s">
+      <c r="H38" s="87" t="s">
         <v>124</v>
       </c>
       <c r="I38" s="9"/>
-      <c r="J38" s="95">
+      <c r="J38" s="89">
         <v>5</v>
       </c>
-      <c r="K38" s="95"/>
+      <c r="K38" s="89"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="96">
+      <c r="M38" s="90"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="90">
         <v>1</v>
       </c>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="93" t="s">
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S38" s="93"/>
-      <c r="T38" s="97" t="s">
+      <c r="S38" s="87"/>
+      <c r="T38" s="91" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="92" t="s">
+    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="93" t="s">
+      <c r="D39" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="93" t="s">
+      <c r="E39" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="94">
+      <c r="F39" s="88">
         <v>2024</v>
       </c>
-      <c r="G39" s="93" t="s">
+      <c r="G39" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="93" t="s">
+      <c r="H39" s="87" t="s">
         <v>124</v>
       </c>
       <c r="I39" s="9"/>
-      <c r="J39" s="95">
+      <c r="J39" s="89">
         <v>5</v>
       </c>
-      <c r="K39" s="95"/>
+      <c r="K39" s="89"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="96">
+      <c r="M39" s="90"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="90">
         <v>1</v>
       </c>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="93" t="s">
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S39" s="93"/>
-      <c r="T39" s="97" t="s">
+      <c r="S39" s="87"/>
+      <c r="T39" s="91" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="99" t="s">
+    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="100" t="s">
+      <c r="D40" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="101" t="s">
+      <c r="E40" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="102"/>
-      <c r="G40" s="93" t="s">
+      <c r="F40" s="96"/>
+      <c r="G40" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="101" t="s">
+      <c r="H40" s="95" t="s">
         <v>127</v>
       </c>
       <c r="I40" s="9">
         <f>ROUNDDOWN(23.1/24*1000000,-3)</f>
         <v>962000</v>
       </c>
-      <c r="J40" s="103">
+      <c r="J40" s="97">
         <v>8</v>
       </c>
-      <c r="K40" s="103"/>
-      <c r="L40" s="107">
+      <c r="K40" s="97"/>
+      <c r="L40" s="101">
         <v>320000</v>
       </c>
-      <c r="M40" s="104">
+      <c r="M40" s="98">
         <v>2</v>
       </c>
-      <c r="N40" s="113">
+      <c r="N40" s="107">
         <v>155000</v>
       </c>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101" t="s">
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="S40" s="101"/>
-      <c r="T40" s="117" t="s">
+      <c r="S40" s="95"/>
+      <c r="T40" s="111" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="92" t="s">
+    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="93" t="s">
+      <c r="D41" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="93" t="s">
+      <c r="E41" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="94">
+      <c r="F41" s="88">
         <v>2009</v>
       </c>
-      <c r="G41" s="93" t="s">
+      <c r="G41" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="87" t="s">
         <v>130</v>
       </c>
       <c r="I41" s="9">
         <v>1156000</v>
       </c>
-      <c r="J41" s="95">
+      <c r="J41" s="89">
         <v>9</v>
       </c>
-      <c r="K41" s="95"/>
+      <c r="K41" s="89">
+        <f>L36+L37+L41</f>
+        <v>487500</v>
+      </c>
       <c r="L41" s="9">
         <v>250000</v>
       </c>
-      <c r="M41" s="96">
+      <c r="M41" s="90">
         <v>2</v>
       </c>
-      <c r="N41" s="113">
+      <c r="N41" s="107">
         <v>217000</v>
       </c>
-      <c r="O41" s="96">
+      <c r="O41" s="90">
         <v>1</v>
       </c>
-      <c r="P41" s="110">
+      <c r="P41" s="104">
         <v>27</v>
       </c>
-      <c r="Q41" s="110">
+      <c r="Q41" s="104">
         <v>70</v>
       </c>
-      <c r="R41" s="93" t="s">
+      <c r="R41" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="S41" s="93"/>
-      <c r="T41" s="97" t="s">
+      <c r="S41" s="87"/>
+      <c r="T41" s="91" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="99" t="s">
+    <row r="42" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="E42" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="102">
+      <c r="F42" s="96">
         <v>2023</v>
       </c>
-      <c r="G42" s="93" t="s">
+      <c r="G42" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="101" t="s">
+      <c r="H42" s="95" t="s">
         <v>136</v>
       </c>
       <c r="I42" s="9">
         <v>700000</v>
       </c>
-      <c r="J42" s="103">
+      <c r="J42" s="97">
         <v>1.5</v>
       </c>
-      <c r="K42" s="118"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="119">
+      <c r="K42" s="112"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="113">
         <v>170000</v>
       </c>
-      <c r="O42" s="101"/>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="101" t="s">
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="S42" s="101"/>
-      <c r="T42" s="105" t="s">
+      <c r="S42" s="95"/>
+      <c r="T42" s="99" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="92" t="s">
+    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="93" t="s">
+      <c r="C43" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="93" t="s">
+      <c r="D43" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="93" t="s">
+      <c r="E43" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="94">
+      <c r="F43" s="88">
         <v>2014</v>
       </c>
-      <c r="G43" s="93" t="s">
+      <c r="G43" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="93" t="s">
+      <c r="H43" s="87" t="s">
         <v>140</v>
       </c>
       <c r="I43" s="9">
         <v>460000</v>
       </c>
-      <c r="J43" s="95">
+      <c r="J43" s="89">
         <v>4</v>
       </c>
-      <c r="K43" s="95"/>
+      <c r="K43" s="89">
+        <f>L43</f>
+        <v>170000</v>
+      </c>
       <c r="L43" s="9">
         <v>170000</v>
       </c>
-      <c r="M43" s="96">
+      <c r="M43" s="90">
         <v>4</v>
       </c>
-      <c r="N43" s="113">
+      <c r="N43" s="107">
         <v>160000</v>
       </c>
-      <c r="O43" s="96"/>
-      <c r="P43" s="110">
+      <c r="O43" s="90"/>
+      <c r="P43" s="104">
         <v>14.5</v>
       </c>
-      <c r="Q43" s="110">
+      <c r="Q43" s="104">
         <v>54</v>
       </c>
-      <c r="R43" s="93" t="s">
+      <c r="R43" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S43" s="93"/>
-      <c r="T43" s="97" t="s">
+      <c r="S43" s="87"/>
+      <c r="T43" s="91" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="99" t="s">
+    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="100" t="s">
+      <c r="C44" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="100" t="s">
+      <c r="D44" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="93" t="s">
+      <c r="E44" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="102">
+      <c r="F44" s="96">
         <v>2017</v>
       </c>
-      <c r="G44" s="100" t="s">
+      <c r="G44" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="H44" s="101" t="s">
+      <c r="H44" s="95" t="s">
         <v>145</v>
       </c>
       <c r="I44" s="9">
         <v>89000</v>
       </c>
-      <c r="J44" s="103">
+      <c r="J44" s="97">
         <v>0.7</v>
       </c>
-      <c r="K44" s="103"/>
-      <c r="L44" s="107">
+      <c r="K44" s="97">
+        <f>L44</f>
         <v>125000</v>
       </c>
-      <c r="M44" s="104">
+      <c r="L44" s="101">
+        <v>125000</v>
+      </c>
+      <c r="M44" s="98">
         <v>5</v>
       </c>
-      <c r="N44" s="113"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="105" t="s">
+      <c r="N44" s="107"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="99" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="99" t="s">
+    <row r="45" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="100" t="s">
+      <c r="D45" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="101" t="s">
+      <c r="E45" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="102"/>
-      <c r="G45" s="93" t="s">
+      <c r="F45" s="96"/>
+      <c r="G45" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="101" t="s">
+      <c r="H45" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="I45" s="101"/>
-      <c r="J45" s="103">
+      <c r="I45" s="95"/>
+      <c r="J45" s="97">
         <v>5</v>
       </c>
-      <c r="K45" s="103"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="105" t="s">
+      <c r="K45" s="97"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="99" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="99" t="s">
+    <row r="46" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="100" t="s">
+      <c r="B46" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="100" t="s">
+      <c r="C46" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="100" t="s">
+      <c r="D46" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="101" t="s">
+      <c r="E46" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="102">
+      <c r="F46" s="96">
         <v>2025</v>
       </c>
-      <c r="G46" s="93" t="s">
+      <c r="G46" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="101" t="s">
+      <c r="H46" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="I46" s="101"/>
-      <c r="J46" s="103">
+      <c r="I46" s="95"/>
+      <c r="J46" s="97">
         <v>3</v>
       </c>
-      <c r="K46" s="103"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="101"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="105" t="s">
+      <c r="K46" s="97"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="92" t="s">
+    <row r="47" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="93" t="s">
+      <c r="B47" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="93" t="s">
+      <c r="D47" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="93" t="s">
+      <c r="E47" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="94">
+      <c r="F47" s="88">
         <v>2011</v>
       </c>
-      <c r="G47" s="93" t="s">
+      <c r="G47" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="93" t="s">
+      <c r="H47" s="87" t="s">
         <v>155</v>
       </c>
       <c r="I47" s="9">
         <v>1650000</v>
       </c>
-      <c r="J47" s="95">
+      <c r="J47" s="89">
         <v>12</v>
       </c>
-      <c r="K47" s="95" t="s">
+      <c r="K47" s="89" t="s">
         <v>156</v>
       </c>
       <c r="L47" s="9">
         <v>540000</v>
       </c>
-      <c r="M47" s="96">
+      <c r="M47" s="90">
         <v>3</v>
       </c>
-      <c r="N47" s="113">
+      <c r="N47" s="107">
         <v>266000</v>
       </c>
-      <c r="O47" s="96">
+      <c r="O47" s="90">
         <v>3</v>
       </c>
-      <c r="P47" s="110" t="s">
+      <c r="P47" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="Q47" s="110">
+      <c r="Q47" s="104">
         <v>80</v>
       </c>
-      <c r="R47" s="93" t="s">
+      <c r="R47" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="S47" s="93"/>
-      <c r="T47" s="97" t="s">
+      <c r="S47" s="87"/>
+      <c r="T47" s="91" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="92" t="s">
+    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="93" t="s">
+      <c r="C48" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="93" t="s">
+      <c r="D48" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="93" t="s">
+      <c r="E48" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="94">
+      <c r="F48" s="88">
         <v>2023</v>
       </c>
-      <c r="G48" s="93" t="s">
+      <c r="G48" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="87" t="s">
         <v>155</v>
       </c>
       <c r="I48" s="9">
         <v>170000</v>
       </c>
-      <c r="J48" s="95">
+      <c r="J48" s="89">
         <v>1.5</v>
       </c>
-      <c r="K48" s="95"/>
+      <c r="K48" s="89"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="93"/>
-      <c r="S48" s="93"/>
-      <c r="T48" s="97" t="s">
+      <c r="M48" s="90"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="104"/>
+      <c r="Q48" s="104"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="91" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="92" t="s">
+    <row r="49" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="93" t="s">
+      <c r="B49" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="93" t="s">
+      <c r="C49" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="93" t="s">
+      <c r="D49" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="93" t="s">
+      <c r="E49" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="94">
+      <c r="F49" s="88">
         <v>2025</v>
       </c>
-      <c r="G49" s="93" t="s">
+      <c r="G49" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="93" t="s">
+      <c r="H49" s="87" t="s">
         <v>155</v>
       </c>
       <c r="I49" s="9">
         <v>280000</v>
       </c>
-      <c r="J49" s="95">
+      <c r="J49" s="89">
         <v>2.5</v>
       </c>
-      <c r="K49" s="95"/>
+      <c r="K49" s="89"/>
       <c r="L49" s="9">
         <f>720000-L47</f>
         <v>180000</v>
       </c>
-      <c r="M49" s="96">
+      <c r="M49" s="90">
         <f>4-M47</f>
         <v>1</v>
       </c>
       <c r="N49" s="9"/>
-      <c r="O49" s="96"/>
+      <c r="O49" s="90"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="93"/>
-      <c r="T49" s="97" t="s">
+      <c r="S49" s="87"/>
+      <c r="T49" s="91" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="122" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="92" t="s">
+    <row r="50" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="93" t="s">
+      <c r="B50" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="93" t="s">
+      <c r="C50" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="93" t="s">
+      <c r="D50" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="93" t="s">
+      <c r="E50" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="94">
+      <c r="F50" s="88">
         <v>2022</v>
       </c>
-      <c r="G50" s="93" t="s">
+      <c r="G50" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H50" s="93" t="s">
+      <c r="H50" s="87" t="s">
         <v>79</v>
       </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="95">
+      <c r="J50" s="89">
         <v>8</v>
       </c>
-      <c r="K50" s="95"/>
+      <c r="K50" s="89">
+        <f>L47+L50</f>
+        <v>720000</v>
+      </c>
       <c r="L50" s="9">
         <v>180000</v>
       </c>
-      <c r="M50" s="96">
+      <c r="M50" s="90">
         <v>6</v>
       </c>
       <c r="N50" s="9">
         <v>180000</v>
       </c>
-      <c r="O50" s="96">
+      <c r="O50" s="90">
         <v>1</v>
       </c>
       <c r="P50" s="9">
         <v>15</v>
       </c>
-      <c r="Q50" s="110">
+      <c r="Q50" s="104">
         <v>80</v>
       </c>
       <c r="R50" s="9"/>
-      <c r="S50" s="93"/>
-      <c r="T50" s="97" t="s">
+      <c r="S50" s="87"/>
+      <c r="T50" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="U50" s="122" t="s">
+      <c r="U50" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="92" t="s">
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="93" t="s">
+      <c r="D51" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="93" t="s">
+      <c r="E51" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="94">
+      <c r="F51" s="88">
         <v>2025</v>
       </c>
-      <c r="G51" s="93" t="s">
+      <c r="G51" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="93" t="s">
+      <c r="H51" s="87" t="s">
         <v>163</v>
       </c>
       <c r="I51" s="9">
         <v>550000</v>
       </c>
-      <c r="J51" s="103">
+      <c r="J51" s="97">
         <v>6.1</v>
       </c>
-      <c r="K51" s="103"/>
+      <c r="K51" s="97"/>
       <c r="L51" s="9">
         <v>170000</v>
       </c>
-      <c r="M51" s="96"/>
-      <c r="N51" s="113">
+      <c r="M51" s="90"/>
+      <c r="N51" s="107">
         <v>170000</v>
       </c>
-      <c r="O51" s="96"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110">
+      <c r="O51" s="90"/>
+      <c r="P51" s="104"/>
+      <c r="Q51" s="104">
         <v>84</v>
       </c>
-      <c r="R51" s="93" t="s">
+      <c r="R51" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S51" s="93" t="s">
+      <c r="S51" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="T51" s="97" t="s">
+      <c r="T51" s="91" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="92" t="s">
+    <row r="52" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="93" t="s">
+      <c r="C52" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="93" t="s">
+      <c r="D52" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="93" t="s">
+      <c r="E52" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="94">
+      <c r="F52" s="88">
         <v>2016</v>
       </c>
-      <c r="G52" s="93" t="s">
+      <c r="G52" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="93" t="s">
+      <c r="H52" s="87" t="s">
         <v>163</v>
       </c>
       <c r="I52" s="9">
         <v>820000</v>
       </c>
-      <c r="J52" s="95">
+      <c r="J52" s="89">
         <v>6.2</v>
       </c>
-      <c r="K52" s="95"/>
+      <c r="K52" s="89">
+        <f>L52</f>
+        <v>320000</v>
+      </c>
       <c r="L52" s="9">
         <v>320000</v>
       </c>
-      <c r="M52" s="96">
+      <c r="M52" s="90">
         <v>2</v>
       </c>
-      <c r="N52" s="113">
+      <c r="N52" s="107">
         <v>216000</v>
       </c>
-      <c r="O52" s="96">
+      <c r="O52" s="90">
         <v>1</v>
       </c>
-      <c r="P52" s="110">
+      <c r="P52" s="104">
         <v>14.5</v>
       </c>
-      <c r="Q52" s="110">
+      <c r="Q52" s="104">
         <v>84</v>
       </c>
-      <c r="R52" s="93" t="s">
+      <c r="R52" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S52" s="93"/>
-      <c r="T52" s="97" t="s">
+      <c r="S52" s="87"/>
+      <c r="T52" s="91" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="92" t="s">
+    <row r="53" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="93" t="s">
+      <c r="B53" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="93" t="s">
+      <c r="C53" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="93" t="s">
+      <c r="D53" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="93" t="s">
+      <c r="E53" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="121">
+      <c r="F53" s="115">
         <v>2023</v>
       </c>
-      <c r="G53" s="93" t="s">
+      <c r="G53" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="93" t="s">
+      <c r="H53" s="87" t="s">
         <v>163</v>
       </c>
       <c r="I53" s="9">
         <v>164000</v>
       </c>
-      <c r="J53" s="95">
+      <c r="J53" s="89">
         <v>2.1</v>
       </c>
-      <c r="K53" s="95"/>
+      <c r="K53" s="89"/>
       <c r="L53" s="9">
         <f>500000-L52</f>
         <v>180000</v>
       </c>
-      <c r="M53" s="96">
+      <c r="M53" s="90">
         <v>1</v>
       </c>
       <c r="N53" s="9"/>
-      <c r="O53" s="96">
+      <c r="O53" s="90">
         <v>1</v>
       </c>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="93"/>
-      <c r="T53" s="97" t="s">
+      <c r="S53" s="87"/>
+      <c r="T53" s="91" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="92" t="s">
+    <row r="54" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="93" t="s">
+      <c r="C54" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="93" t="s">
+      <c r="D54" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="93" t="s">
+      <c r="E54" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="94">
+      <c r="F54" s="88">
         <v>2004</v>
       </c>
-      <c r="G54" s="93" t="s">
+      <c r="G54" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="93" t="s">
+      <c r="H54" s="87" t="s">
         <v>168</v>
       </c>
       <c r="I54" s="9">
         <v>1350000</v>
       </c>
-      <c r="J54" s="95">
+      <c r="J54" s="89">
         <v>7.6</v>
       </c>
-      <c r="K54" s="95"/>
+      <c r="K54" s="89">
+        <f>L54</f>
+        <v>390000</v>
+      </c>
       <c r="L54" s="9">
         <v>390000</v>
       </c>
-      <c r="M54" s="96">
+      <c r="M54" s="90">
         <v>3</v>
       </c>
-      <c r="N54" s="113">
+      <c r="N54" s="107">
         <v>216000</v>
       </c>
-      <c r="O54" s="96">
+      <c r="O54" s="90">
         <v>1</v>
       </c>
-      <c r="P54" s="110">
+      <c r="P54" s="104">
         <v>13.5</v>
       </c>
-      <c r="Q54" s="110">
+      <c r="Q54" s="104">
         <v>84</v>
       </c>
-      <c r="R54" s="93" t="s">
+      <c r="R54" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S54" s="93"/>
-      <c r="T54" s="97" t="s">
+      <c r="S54" s="87"/>
+      <c r="T54" s="91" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="92" t="s">
+    <row r="55" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="93" t="s">
+      <c r="B55" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="93" t="s">
+      <c r="C55" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="108" t="s">
+      <c r="D55" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="93" t="s">
+      <c r="E55" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="94">
+      <c r="F55" s="88">
         <v>2019</v>
       </c>
-      <c r="G55" s="93" t="s">
+      <c r="G55" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="108" t="s">
+      <c r="H55" s="102" t="s">
         <v>172</v>
       </c>
       <c r="I55" s="9"/>
-      <c r="J55" s="95">
+      <c r="J55" s="89">
         <v>3.7</v>
       </c>
-      <c r="K55" s="95"/>
+      <c r="K55" s="89"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="113">
+      <c r="M55" s="90"/>
+      <c r="N55" s="107">
         <v>174000</v>
       </c>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-      <c r="R55" s="93"/>
-      <c r="S55" s="108"/>
-      <c r="T55" s="115" t="s">
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="87"/>
+      <c r="S55" s="102"/>
+      <c r="T55" s="109" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="92" t="s">
+    <row r="56" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="93" t="s">
+      <c r="C56" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="93" t="s">
+      <c r="D56" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="93" t="s">
+      <c r="E56" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="94">
+      <c r="F56" s="88">
         <v>1969</v>
       </c>
-      <c r="G56" s="93" t="s">
+      <c r="G56" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="93" t="s">
+      <c r="H56" s="87" t="s">
         <v>176</v>
       </c>
       <c r="I56" s="9">
         <v>1950000</v>
       </c>
-      <c r="J56" s="95">
+      <c r="J56" s="89">
         <v>17.100000000000001</v>
       </c>
-      <c r="K56" s="95"/>
+      <c r="K56" s="89"/>
       <c r="L56" s="9">
         <v>760000</v>
       </c>
-      <c r="M56" s="96">
+      <c r="M56" s="90">
         <v>6</v>
       </c>
-      <c r="N56" s="113">
+      <c r="N56" s="107">
         <v>266000</v>
       </c>
-      <c r="O56" s="96">
+      <c r="O56" s="90">
         <v>2</v>
       </c>
-      <c r="P56" s="110">
+      <c r="P56" s="104">
         <v>15</v>
       </c>
-      <c r="Q56" s="110">
+      <c r="Q56" s="104">
         <v>72</v>
       </c>
-      <c r="R56" s="93" t="s">
+      <c r="R56" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S56" s="93"/>
-      <c r="T56" s="97" t="s">
+      <c r="S56" s="87"/>
+      <c r="T56" s="91" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="92" t="s">
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="93" t="s">
+      <c r="B57" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="93" t="s">
+      <c r="C57" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="93" t="s">
+      <c r="D57" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="93" t="s">
+      <c r="E57" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="94">
+      <c r="F57" s="88">
         <v>2003</v>
       </c>
-      <c r="G57" s="93" t="s">
+      <c r="G57" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="93" t="s">
+      <c r="H57" s="87" t="s">
         <v>178</v>
       </c>
       <c r="I57" s="9">
         <v>800000</v>
       </c>
-      <c r="J57" s="95">
+      <c r="J57" s="89">
         <v>7</v>
       </c>
-      <c r="K57" s="95"/>
+      <c r="K57" s="89"/>
       <c r="L57" s="9">
         <v>450000</v>
       </c>
-      <c r="M57" s="96">
+      <c r="M57" s="90">
         <v>3</v>
       </c>
-      <c r="N57" s="113">
+      <c r="N57" s="107">
         <v>270000</v>
       </c>
-      <c r="O57" s="96">
+      <c r="O57" s="90">
         <v>1</v>
       </c>
-      <c r="P57" s="110">
+      <c r="P57" s="104">
         <v>20</v>
       </c>
-      <c r="Q57" s="110">
+      <c r="Q57" s="104">
         <v>72</v>
       </c>
-      <c r="R57" s="93" t="s">
+      <c r="R57" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="93"/>
-      <c r="T57" s="97" t="s">
+      <c r="S57" s="87"/>
+      <c r="T57" s="91" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="92" t="s">
+    <row r="58" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="93" t="s">
+      <c r="B58" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="93" t="s">
+      <c r="C58" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="93" t="s">
+      <c r="D58" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="93" t="s">
+      <c r="E58" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="94">
+      <c r="F58" s="88">
         <v>1989</v>
       </c>
-      <c r="G58" s="93" t="s">
+      <c r="G58" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="93" t="s">
+      <c r="H58" s="87" t="s">
         <v>176</v>
       </c>
       <c r="I58" s="9">
         <v>1350000</v>
       </c>
-      <c r="J58" s="95">
+      <c r="J58" s="89">
         <v>11.8</v>
       </c>
-      <c r="K58" s="95"/>
+      <c r="K58" s="89"/>
       <c r="L58" s="9">
         <v>587000</v>
       </c>
-      <c r="M58" s="96">
+      <c r="M58" s="90">
         <v>5</v>
       </c>
-      <c r="N58" s="113">
+      <c r="N58" s="107">
         <v>266000</v>
       </c>
-      <c r="O58" s="96">
+      <c r="O58" s="90">
         <v>2</v>
       </c>
-      <c r="P58" s="110">
+      <c r="P58" s="104">
         <v>15</v>
       </c>
-      <c r="Q58" s="110">
+      <c r="Q58" s="104">
         <v>72</v>
       </c>
-      <c r="R58" s="93" t="s">
+      <c r="R58" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S58" s="93"/>
-      <c r="T58" s="97" t="s">
+      <c r="S58" s="87"/>
+      <c r="T58" s="91" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="92" t="s">
+    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="93" t="s">
+      <c r="C59" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="100" t="s">
+      <c r="D59" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="E59" s="93" t="s">
+      <c r="E59" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="94">
+      <c r="F59" s="88">
         <v>2012</v>
       </c>
-      <c r="G59" s="93" t="s">
+      <c r="G59" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="93" t="s">
+      <c r="H59" s="87" t="s">
         <v>176</v>
       </c>
       <c r="I59" s="9">
         <v>800000</v>
       </c>
-      <c r="J59" s="95">
+      <c r="J59" s="89">
         <v>7</v>
       </c>
-      <c r="K59" s="95"/>
+      <c r="K59" s="89"/>
       <c r="L59" s="9">
         <v>300000</v>
       </c>
-      <c r="M59" s="96">
+      <c r="M59" s="90">
         <v>2</v>
       </c>
-      <c r="N59" s="113">
+      <c r="N59" s="107">
         <v>266000</v>
       </c>
-      <c r="O59" s="96">
+      <c r="O59" s="90">
         <v>1</v>
       </c>
-      <c r="P59" s="110">
+      <c r="P59" s="104">
         <v>14.5</v>
       </c>
-      <c r="Q59" s="110">
+      <c r="Q59" s="104">
         <v>72</v>
       </c>
-      <c r="R59" s="93" t="s">
+      <c r="R59" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S59" s="93"/>
-      <c r="T59" s="97" t="s">
+      <c r="S59" s="87"/>
+      <c r="T59" s="91" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="92" t="s">
+    <row r="60" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="93" t="s">
+      <c r="C60" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="93" t="s">
+      <c r="D60" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="93" t="s">
+      <c r="E60" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="94">
+      <c r="F60" s="88">
         <v>1988</v>
       </c>
-      <c r="G60" s="93" t="s">
+      <c r="G60" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="93" t="s">
+      <c r="H60" s="87" t="s">
         <v>176</v>
       </c>
       <c r="I60" s="9">
         <v>1350000</v>
       </c>
-      <c r="J60" s="95">
+      <c r="J60" s="89">
         <v>11.8</v>
       </c>
-      <c r="K60" s="95"/>
+      <c r="K60" s="89"/>
       <c r="L60" s="9">
         <v>619500</v>
       </c>
-      <c r="M60" s="96">
+      <c r="M60" s="90">
         <v>5</v>
       </c>
-      <c r="N60" s="113">
+      <c r="N60" s="107">
         <v>180000</v>
       </c>
-      <c r="O60" s="96">
+      <c r="O60" s="90">
         <v>1</v>
       </c>
-      <c r="P60" s="110">
+      <c r="P60" s="104">
         <v>12.5</v>
       </c>
-      <c r="Q60" s="110">
+      <c r="Q60" s="104">
         <v>72</v>
       </c>
-      <c r="R60" s="93" t="s">
+      <c r="R60" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S60" s="93"/>
-      <c r="T60" s="97" t="s">
+      <c r="S60" s="87"/>
+      <c r="T60" s="91" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="92" t="s">
+    <row r="61" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="93" t="s">
+      <c r="C61" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="93" t="s">
+      <c r="D61" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="93" t="s">
+      <c r="E61" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="94">
+      <c r="F61" s="88">
         <v>2007</v>
       </c>
-      <c r="G61" s="93" t="s">
+      <c r="G61" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="93" t="s">
+      <c r="H61" s="87" t="s">
         <v>185</v>
       </c>
       <c r="I61" s="9">
         <v>412800</v>
       </c>
-      <c r="J61" s="95">
+      <c r="J61" s="89">
         <v>3.6</v>
       </c>
-      <c r="K61" s="95"/>
+      <c r="K61" s="89"/>
       <c r="L61" s="9">
         <v>300000</v>
       </c>
-      <c r="M61" s="96">
+      <c r="M61" s="90">
         <v>2</v>
       </c>
-      <c r="N61" s="113">
+      <c r="N61" s="107">
         <v>266000</v>
       </c>
-      <c r="O61" s="96">
+      <c r="O61" s="90">
         <v>1</v>
       </c>
-      <c r="P61" s="110">
+      <c r="P61" s="104">
         <v>14</v>
       </c>
-      <c r="Q61" s="110">
+      <c r="Q61" s="104">
         <v>80</v>
       </c>
-      <c r="R61" s="93" t="s">
+      <c r="R61" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S61" s="93"/>
-      <c r="T61" s="97" t="s">
+      <c r="S61" s="87"/>
+      <c r="T61" s="91" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="92" t="s">
+    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="93" t="s">
+      <c r="C62" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="D62" s="93" t="s">
+      <c r="D62" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="93" t="s">
+      <c r="E62" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="94">
+      <c r="F62" s="88">
         <v>2006</v>
       </c>
-      <c r="G62" s="93" t="s">
+      <c r="G62" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="87" t="s">
         <v>188</v>
       </c>
       <c r="I62" s="9">
         <v>1000000</v>
       </c>
-      <c r="J62" s="95">
+      <c r="J62" s="89">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K62" s="95"/>
+      <c r="K62" s="89">
+        <f>L56+L57+L58+L60+L61+L62+L59</f>
+        <v>3616500</v>
+      </c>
       <c r="L62" s="9">
         <v>600000</v>
       </c>
-      <c r="M62" s="96">
+      <c r="M62" s="90">
         <v>4</v>
       </c>
-      <c r="N62" s="113">
+      <c r="N62" s="107">
         <v>265000</v>
       </c>
-      <c r="O62" s="96">
+      <c r="O62" s="90">
         <v>1</v>
       </c>
-      <c r="P62" s="110" t="s">
+      <c r="P62" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="Q62" s="110">
+      <c r="Q62" s="104">
         <v>72</v>
       </c>
-      <c r="R62" s="93" t="s">
+      <c r="R62" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S62" s="93"/>
-      <c r="T62" s="97" t="s">
+      <c r="S62" s="87"/>
+      <c r="T62" s="91" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="92" t="s">
+    <row r="63" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="93" t="s">
+      <c r="C63" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="93" t="s">
+      <c r="D63" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="93" t="s">
+      <c r="E63" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="94">
+      <c r="F63" s="88">
         <v>2016</v>
       </c>
-      <c r="G63" s="93" t="s">
+      <c r="G63" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H63" s="93" t="s">
+      <c r="H63" s="87" t="s">
         <v>193</v>
       </c>
       <c r="I63" s="9"/>
-      <c r="J63" s="95">
+      <c r="J63" s="89">
         <v>7.3</v>
       </c>
-      <c r="K63" s="95"/>
+      <c r="K63" s="89"/>
       <c r="L63" s="9">
         <v>167000</v>
       </c>
-      <c r="M63" s="96"/>
-      <c r="N63" s="113"/>
-      <c r="O63" s="96"/>
-      <c r="P63" s="110">
+      <c r="M63" s="90"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="104">
         <v>17</v>
       </c>
-      <c r="Q63" s="110">
+      <c r="Q63" s="104">
         <v>75</v>
       </c>
-      <c r="R63" s="93" t="s">
+      <c r="R63" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S63" s="93"/>
-      <c r="T63" s="97" t="s">
+      <c r="S63" s="87"/>
+      <c r="T63" s="91" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="92" t="s">
+    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="93" t="s">
+      <c r="C64" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="93" t="s">
+      <c r="D64" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="93" t="s">
+      <c r="E64" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="94">
+      <c r="F64" s="88">
         <v>2006</v>
       </c>
-      <c r="G64" s="93" t="s">
+      <c r="G64" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H64" s="93" t="s">
+      <c r="H64" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I64" s="9"/>
-      <c r="J64" s="95">
+      <c r="J64" s="89">
         <v>13.8</v>
       </c>
-      <c r="K64" s="95"/>
+      <c r="K64" s="89"/>
       <c r="L64" s="9">
         <v>280000</v>
       </c>
-      <c r="M64" s="96">
+      <c r="M64" s="90">
         <v>2</v>
       </c>
-      <c r="N64" s="113">
+      <c r="N64" s="107">
         <v>265000</v>
       </c>
-      <c r="O64" s="96">
+      <c r="O64" s="90">
         <v>1</v>
       </c>
-      <c r="P64" s="110"/>
-      <c r="Q64" s="110"/>
-      <c r="R64" s="93"/>
-      <c r="S64" s="93"/>
-      <c r="T64" s="97" t="s">
+      <c r="P64" s="104"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="87"/>
+      <c r="S64" s="87"/>
+      <c r="T64" s="91" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="92" t="s">
+    <row r="65" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="93" t="s">
+      <c r="B65" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="93" t="s">
+      <c r="C65" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="93" t="s">
+      <c r="D65" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="93" t="s">
+      <c r="E65" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="94">
+      <c r="F65" s="88">
         <v>2022</v>
       </c>
-      <c r="G65" s="93" t="s">
+      <c r="G65" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H65" s="93" t="s">
+      <c r="H65" s="87" t="s">
         <v>199</v>
       </c>
       <c r="I65" s="9"/>
-      <c r="J65" s="95">
+      <c r="J65" s="89">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K65" s="95"/>
+      <c r="K65" s="89"/>
       <c r="L65" s="9">
         <v>170000</v>
       </c>
-      <c r="M65" s="96"/>
-      <c r="N65" s="113"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="110"/>
-      <c r="Q65" s="110"/>
-      <c r="R65" s="93"/>
-      <c r="S65" s="93"/>
-      <c r="T65" s="97" t="s">
+      <c r="M65" s="90"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="87"/>
+      <c r="S65" s="87"/>
+      <c r="T65" s="91" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="92" t="s">
+    <row r="66" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="93" t="s">
+      <c r="B66" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="93" t="s">
+      <c r="C66" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="93" t="s">
+      <c r="E66" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="94">
+      <c r="F66" s="88">
         <v>2018</v>
       </c>
-      <c r="G66" s="93" t="s">
+      <c r="G66" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="93" t="s">
+      <c r="H66" s="87" t="s">
         <v>199</v>
       </c>
       <c r="I66" s="9"/>
-      <c r="J66" s="95">
+      <c r="J66" s="89">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K66" s="95"/>
+      <c r="K66" s="89"/>
       <c r="L66" s="9">
         <v>170000</v>
       </c>
-      <c r="M66" s="96"/>
-      <c r="N66" s="113"/>
-      <c r="O66" s="96"/>
-      <c r="P66" s="110"/>
-      <c r="Q66" s="110"/>
-      <c r="R66" s="93"/>
-      <c r="S66" s="93"/>
-      <c r="T66" s="97" t="s">
+      <c r="M66" s="90"/>
+      <c r="N66" s="107"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="87"/>
+      <c r="S66" s="87"/>
+      <c r="T66" s="91" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="92" t="s">
+    <row r="67" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="B67" s="93" t="s">
+      <c r="B67" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="93" t="s">
+      <c r="C67" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="D67" s="93" t="s">
+      <c r="D67" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="93" t="s">
+      <c r="E67" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="94">
+      <c r="F67" s="88">
         <v>1994</v>
       </c>
-      <c r="G67" s="93" t="s">
+      <c r="G67" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="93" t="s">
+      <c r="H67" s="87" t="s">
         <v>199</v>
       </c>
       <c r="I67" s="9"/>
-      <c r="J67" s="95">
+      <c r="J67" s="89">
         <v>12.8</v>
       </c>
-      <c r="K67" s="95"/>
+      <c r="K67" s="89">
+        <f>L64+L66+L67</f>
+        <v>705000</v>
+      </c>
       <c r="L67" s="9">
         <v>255000</v>
       </c>
-      <c r="M67" s="96">
+      <c r="M67" s="90">
         <v>3</v>
       </c>
-      <c r="N67" s="113">
+      <c r="N67" s="107">
         <v>266000</v>
       </c>
-      <c r="O67" s="96">
+      <c r="O67" s="90">
         <v>1</v>
       </c>
-      <c r="P67" s="110"/>
-      <c r="Q67" s="110"/>
-      <c r="R67" s="93"/>
-      <c r="S67" s="93"/>
-      <c r="T67" s="97" t="s">
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="87"/>
+      <c r="S67" s="87"/>
+      <c r="T67" s="91" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="92" t="s">
+    <row r="68" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="93" t="s">
+      <c r="B68" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="93" t="s">
+      <c r="C68" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="D68" s="93" t="s">
+      <c r="D68" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E68" s="93" t="s">
+      <c r="E68" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="94">
+      <c r="F68" s="88">
         <v>2005</v>
       </c>
-      <c r="G68" s="93" t="s">
+      <c r="G68" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="93" t="s">
+      <c r="H68" s="87" t="s">
         <v>205</v>
       </c>
       <c r="I68" s="9">
         <v>2650000</v>
       </c>
-      <c r="J68" s="95">
+      <c r="J68" s="89">
         <v>19.5</v>
       </c>
-      <c r="K68" s="95"/>
+      <c r="K68" s="89"/>
       <c r="L68" s="9">
         <v>1000000</v>
       </c>
-      <c r="M68" s="96">
+      <c r="M68" s="90">
         <v>8</v>
       </c>
-      <c r="N68" s="113">
+      <c r="N68" s="107">
         <v>266000</v>
       </c>
-      <c r="O68" s="96">
+      <c r="O68" s="90">
         <v>2</v>
       </c>
-      <c r="P68" s="110">
+      <c r="P68" s="104">
         <v>13</v>
       </c>
-      <c r="Q68" s="110">
+      <c r="Q68" s="104">
         <v>70</v>
       </c>
-      <c r="R68" s="93" t="s">
+      <c r="R68" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="S68" s="93"/>
-      <c r="T68" s="97" t="s">
+      <c r="S68" s="87"/>
+      <c r="T68" s="91" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="92" t="s">
+    <row r="69" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="93" t="s">
+      <c r="B69" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="93" t="s">
+      <c r="C69" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="93" t="s">
+      <c r="D69" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="93" t="s">
+      <c r="E69" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="94">
+      <c r="F69" s="88">
         <v>2025</v>
       </c>
-      <c r="G69" s="93" t="s">
+      <c r="G69" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H69" s="93" t="s">
+      <c r="H69" s="87" t="s">
         <v>205</v>
       </c>
       <c r="I69" s="9"/>
-      <c r="J69" s="95">
+      <c r="J69" s="89">
         <v>5</v>
       </c>
-      <c r="K69" s="95"/>
+      <c r="K69" s="89"/>
       <c r="L69" s="9">
         <f>1200000-L68</f>
         <v>200000</v>
@@ -6512,178 +7466,181 @@
         <v>1</v>
       </c>
       <c r="N69" s="9"/>
-      <c r="O69" s="96"/>
+      <c r="O69" s="90"/>
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
-      <c r="R69" s="93" t="s">
+      <c r="R69" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S69" s="93"/>
-      <c r="T69" s="97" t="s">
+      <c r="S69" s="87"/>
+      <c r="T69" s="91" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="92" t="s">
+    <row r="70" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="93" t="s">
+      <c r="B70" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="93" t="s">
+      <c r="C70" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="93" t="s">
+      <c r="D70" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="93" t="s">
+      <c r="E70" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F70" s="94">
+      <c r="F70" s="88">
         <v>2009</v>
       </c>
-      <c r="G70" s="93" t="s">
+      <c r="G70" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H70" s="93" t="s">
+      <c r="H70" s="87" t="s">
         <v>208</v>
       </c>
       <c r="I70" s="9">
         <v>1140000</v>
       </c>
-      <c r="J70" s="95">
+      <c r="J70" s="89">
         <v>7.6</v>
       </c>
-      <c r="K70" s="95"/>
+      <c r="K70" s="89"/>
       <c r="L70" s="9">
         <v>320000</v>
       </c>
-      <c r="M70" s="96">
+      <c r="M70" s="90">
         <v>2</v>
       </c>
-      <c r="N70" s="113">
+      <c r="N70" s="107">
         <v>217000</v>
       </c>
-      <c r="O70" s="96">
+      <c r="O70" s="90">
         <v>1</v>
       </c>
-      <c r="P70" s="110" t="s">
+      <c r="P70" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="Q70" s="110" t="s">
+      <c r="Q70" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="R70" s="93" t="s">
+      <c r="R70" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="S70" s="93"/>
-      <c r="T70" s="97" t="s">
+      <c r="S70" s="87"/>
+      <c r="T70" s="91" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="92" t="s">
+    <row r="71" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="93" t="s">
+      <c r="C71" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="D71" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="93" t="s">
+      <c r="E71" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="94">
+      <c r="F71" s="88">
         <v>2009</v>
       </c>
-      <c r="G71" s="93" t="s">
+      <c r="G71" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H71" s="93" t="s">
+      <c r="H71" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I71" s="9">
         <v>2440000</v>
       </c>
-      <c r="J71" s="95">
+      <c r="J71" s="89">
         <v>21</v>
       </c>
-      <c r="K71" s="95"/>
+      <c r="K71" s="89">
+        <f>L68+L70+L71</f>
+        <v>2095000</v>
+      </c>
       <c r="L71" s="9">
         <v>775000</v>
       </c>
-      <c r="M71" s="96">
+      <c r="M71" s="90">
         <v>5</v>
       </c>
-      <c r="N71" s="113">
+      <c r="N71" s="107">
         <v>265000</v>
       </c>
-      <c r="O71" s="96">
+      <c r="O71" s="90">
         <v>2</v>
       </c>
-      <c r="P71" s="110">
+      <c r="P71" s="104">
         <v>17.100000000000001</v>
       </c>
-      <c r="Q71" s="110">
+      <c r="Q71" s="104">
         <v>93.5</v>
       </c>
-      <c r="R71" s="93" t="s">
+      <c r="R71" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="S71" s="93"/>
-      <c r="T71" s="97" t="s">
+      <c r="S71" s="87"/>
+      <c r="T71" s="91" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="92" t="s">
+    <row r="72" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="93" t="s">
+      <c r="C72" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="93" t="s">
+      <c r="D72" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="93" t="s">
+      <c r="E72" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="94">
+      <c r="F72" s="88">
         <v>2007</v>
       </c>
-      <c r="G72" s="93" t="s">
+      <c r="G72" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="H72" s="93" t="s">
+      <c r="H72" s="87" t="s">
         <v>215</v>
       </c>
       <c r="I72" s="9"/>
-      <c r="J72" s="95">
+      <c r="J72" s="89">
         <v>4.2</v>
       </c>
-      <c r="K72" s="95"/>
+      <c r="K72" s="89"/>
       <c r="L72" s="9">
         <v>0</v>
       </c>
-      <c r="M72" s="96"/>
-      <c r="N72" s="113">
+      <c r="M72" s="90"/>
+      <c r="N72" s="107">
         <v>150000</v>
       </c>
-      <c r="O72" s="96">
+      <c r="O72" s="90">
         <v>1</v>
       </c>
-      <c r="P72" s="110"/>
-      <c r="Q72" s="110"/>
-      <c r="R72" s="93"/>
-      <c r="S72" s="93"/>
-      <c r="T72" s="97" t="s">
+      <c r="P72" s="104"/>
+      <c r="Q72" s="104"/>
+      <c r="R72" s="87"/>
+      <c r="S72" s="87"/>
+      <c r="T72" s="91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6716,362 +7673,362 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="123"/>
-    <col min="2" max="2" width="24" style="123" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="126" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="125" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="126" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="126" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="126"/>
+    <col min="1" max="1" width="9.109375" style="116"/>
+    <col min="2" max="2" width="24" style="116" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="119" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="118" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" style="119" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="118" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="119" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="124"/>
-      <c r="C1" s="132" t="s">
+    <row r="1" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="117"/>
+      <c r="C1" s="142" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-    </row>
-    <row r="2" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="125"/>
-      <c r="E2" s="125"/>
-    </row>
-    <row r="3" spans="1:21" s="131" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+    </row>
+    <row r="2" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="118"/>
+      <c r="E2" s="118"/>
+    </row>
+    <row r="3" spans="1:21" s="124" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="120" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="121" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="121" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="135" t="s">
+      <c r="I3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="125" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="138">
+      <c r="D4" s="128">
         <v>1978</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="138">
+      <c r="F4" s="128">
         <v>7.9</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="128">
         <v>6</v>
       </c>
-      <c r="H4" s="139"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="140" t="s">
+      <c r="H4" s="129"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="130" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="133">
         <v>1981</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="143">
+      <c r="F5" s="133">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G5" s="143">
+      <c r="G5" s="133">
         <v>6</v>
       </c>
-      <c r="H5" s="144"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="140" t="s">
+      <c r="H5" s="134"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="130" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="133">
         <v>2014</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="F6" s="143">
+      <c r="F6" s="133">
         <v>4.5</v>
       </c>
-      <c r="G6" s="143">
+      <c r="G6" s="133">
         <v>1</v>
       </c>
-      <c r="H6" s="144"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="140" t="s">
+      <c r="H6" s="134"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="130" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="131" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="133">
         <v>2013</v>
       </c>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="143">
+      <c r="F7" s="133">
         <v>4.5</v>
       </c>
-      <c r="G7" s="143">
+      <c r="G7" s="133">
         <v>1</v>
       </c>
-      <c r="H7" s="145"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="140" t="s">
+      <c r="H7" s="135"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="131" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="133">
         <v>2005</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="143">
+      <c r="F8" s="133">
         <v>5</v>
       </c>
-      <c r="G8" s="143">
+      <c r="G8" s="133">
         <v>1</v>
       </c>
-      <c r="H8" s="144"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="140" t="s">
+      <c r="H8" s="134"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="133">
         <v>2005</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="132" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="143">
+      <c r="F9" s="133">
         <v>7.2</v>
       </c>
-      <c r="G9" s="143">
+      <c r="G9" s="133">
         <v>2</v>
       </c>
-      <c r="H9" s="144"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="140" t="s">
+      <c r="H9" s="134"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="130" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="133">
         <v>1970</v>
       </c>
-      <c r="E10" s="142" t="s">
+      <c r="E10" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="143">
+      <c r="F10" s="133">
         <v>3.2</v>
       </c>
-      <c r="G10" s="143">
+      <c r="G10" s="133">
         <v>4</v>
       </c>
-      <c r="H10" s="144" t="s">
+      <c r="H10" s="134" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="140" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="130" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="131" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="133">
         <v>2007</v>
       </c>
-      <c r="E11" s="142" t="s">
+      <c r="E11" s="132" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="143">
+      <c r="F11" s="133">
         <v>4.3</v>
       </c>
-      <c r="G11" s="143">
+      <c r="G11" s="133">
         <v>1</v>
       </c>
-      <c r="H11" s="144"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="140" t="s">
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="143">
+      <c r="D12" s="133">
         <v>2017</v>
       </c>
-      <c r="E12" s="142" t="s">
+      <c r="E12" s="132" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="143">
+      <c r="F12" s="133">
         <v>17.399999999999999</v>
       </c>
-      <c r="G12" s="143">
+      <c r="G12" s="133">
         <v>4</v>
       </c>
-      <c r="H12" s="145"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="140" t="s">
+      <c r="H12" s="135"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="131" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="133">
         <v>2023</v>
       </c>
-      <c r="E13" s="142" t="s">
+      <c r="E13" s="132" t="s">
         <v>258</v>
       </c>
-      <c r="F13" s="143">
+      <c r="F13" s="133">
         <v>19.8</v>
       </c>
-      <c r="G13" s="143">
+      <c r="G13" s="133">
         <v>3</v>
       </c>
-      <c r="H13" s="146"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="140" t="s">
+      <c r="H13" s="136"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="131" t="s">
         <v>263</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="133">
         <v>2024</v>
       </c>
-      <c r="E14" s="142" t="s">
+      <c r="E14" s="132" t="s">
         <v>260</v>
       </c>
-      <c r="F14" s="143">
+      <c r="F14" s="133">
         <v>13</v>
       </c>
-      <c r="G14" s="143">
+      <c r="G14" s="133">
         <v>2</v>
       </c>
-      <c r="H14" s="144"/>
-    </row>
-    <row r="15" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="H14" s="134"/>
+    </row>
+    <row r="15" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="138" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="150">
+      <c r="D15" s="140">
         <v>2022</v>
       </c>
-      <c r="E15" s="149" t="s">
+      <c r="E15" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="150">
+      <c r="F15" s="140">
         <v>1.5</v>
       </c>
-      <c r="G15" s="150">
+      <c r="G15" s="140">
         <v>1</v>
       </c>
-      <c r="H15" s="151"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="126" t="s">
+      <c r="H15" s="141"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="119" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7098,40 +8055,40 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="134" t="s">
+    <row r="1" spans="2:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="134" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="144" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-    </row>
-    <row r="4" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:8" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+    </row>
+    <row r="4" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:8" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="25" t="s">
         <v>30</v>
       </c>
@@ -7148,250 +8105,250 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="57">
         <v>11.4</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57">
         <v>5.7</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="65" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="32">
         <v>2.6</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32">
         <v>2.6</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="65" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="62">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="37">
         <v>2.44</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="65" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
         <v>6.5</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="66" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="69">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="63">
         <v>5</v>
       </c>
-      <c r="G10" s="61"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="65" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="32">
         <v>33</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32">
         <v>3.5</v>
       </c>
-      <c r="G11" s="61"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="37"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="65" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32">
         <v>31.2</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="65" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="32">
         <v>7</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32">
         <v>5.5</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="32">
         <v>13.2</v>
       </c>
-      <c r="G13" s="61"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="65" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32">
         <v>10.4</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="37"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="65" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="32">
         <v>15.95</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32">
         <v>18</v>
       </c>
-      <c r="G15" s="61"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="65" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32">
         <v>1.5</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="37"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="65" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="32">
         <v>4</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="37"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="65" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="32">
         <v>0.7</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="65" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="32">
         <v>20</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32">
         <v>1.5</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="32">
         <v>2.5</v>
       </c>
-      <c r="G19" s="61"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="65" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="32">
         <v>6.2</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32">
         <v>2.1</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="32">
         <v>6.1</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="37"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="65" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="32">
         <v>7.6</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="37"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="65" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="32">
         <v>60.1</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="32">
         <v>7</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="61"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
         <v>28</v>
       </c>
@@ -7411,13 +8368,13 @@
         <f t="shared" si="0"/>
         <v>100.5</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="71"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="65"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
         <v>20</v>
       </c>
@@ -7429,7 +8386,7 @@
       </c>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
         <v>170</v>
       </c>
@@ -7441,7 +8398,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="45"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="44" t="s">
         <v>191</v>
       </c>
@@ -7455,7 +8412,7 @@
       </c>
       <c r="G26" s="45"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="44" t="s">
         <v>203</v>
       </c>
@@ -7471,7 +8428,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
         <v>220</v>
       </c>
@@ -7496,7 +8453,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>221</v>
       </c>
@@ -7521,7 +8478,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>222</v>
       </c>
@@ -7531,57 +8488,57 @@
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="134" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="144" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="D35" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="84" t="s">
+      <c r="F35" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="85" t="s">
+      <c r="G35" s="79" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="78">
+      <c r="C36" s="72">
         <v>140.70000000000002</v>
       </c>
-      <c r="D36" s="79">
+      <c r="D36" s="73">
         <v>7</v>
       </c>
-      <c r="E36" s="79">
+      <c r="E36" s="73">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F36" s="79">
+      <c r="F36" s="73">
         <v>37.5</v>
       </c>
-      <c r="G36" s="80"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="74"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
         <v>224</v>
       </c>
@@ -7606,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="40" t="s">
         <v>135</v>
       </c>
@@ -7616,9 +8573,9 @@
       <c r="F38" s="53">
         <v>1.5</v>
       </c>
-      <c r="G38" s="54"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="41"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="40" t="s">
         <v>25</v>
       </c>
@@ -7632,9 +8589,9 @@
       <c r="F39" s="53">
         <v>61.5</v>
       </c>
-      <c r="G39" s="54"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="40" t="s">
         <v>144</v>
       </c>
@@ -7644,97 +8601,97 @@
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
-    </row>
-    <row r="41" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="72" t="s">
+      <c r="G40" s="41"/>
+    </row>
+    <row r="41" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="67">
         <v>9</v>
       </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
-    </row>
-    <row r="42" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="76" t="s">
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="69"/>
+    </row>
+    <row r="42" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="77">
+      <c r="C42" s="71">
         <f>C37+C36</f>
         <v>168.55</v>
       </c>
-      <c r="D42" s="77">
+      <c r="D42" s="71">
         <f t="shared" ref="D42:G42" si="5">D37+D36</f>
         <v>7</v>
       </c>
-      <c r="E42" s="77">
+      <c r="E42" s="71">
         <f t="shared" si="5"/>
         <v>17.240000000000002</v>
       </c>
-      <c r="F42" s="77">
+      <c r="F42" s="71">
         <f t="shared" si="5"/>
         <v>100.5</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42" s="37"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="134" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="144" t="s">
         <v>230</v>
       </c>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="82" t="s">
+      <c r="D47" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="E47" s="83" t="s">
+      <c r="E47" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="F47" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="85" t="s">
+      <c r="G47" s="79" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="61">
         <v>215.40000000000006</v>
       </c>
-      <c r="D48" s="68">
+      <c r="D48" s="62">
         <v>7</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="62">
         <v>14.299999999999999</v>
       </c>
-      <c r="F48" s="68">
+      <c r="F48" s="62">
         <v>37.5</v>
       </c>
       <c r="G48" s="42"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="39" t="s">
         <v>224</v>
       </c>
@@ -7759,7 +8716,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="40" t="s">
         <v>135</v>
       </c>
@@ -7771,7 +8728,7 @@
       </c>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="40" t="s">
         <v>25</v>
       </c>
@@ -7787,7 +8744,7 @@
       </c>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="40" t="s">
         <v>144</v>
       </c>
@@ -7799,7 +8756,7 @@
       <c r="F52" s="53"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="40" t="s">
         <v>214</v>
       </c>
@@ -7811,7 +8768,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="40" t="s">
         <v>129</v>
       </c>
@@ -7823,81 +8780,81 @@
       <c r="F54" s="53"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="76" t="s">
+    <row r="55" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="C55" s="77">
+      <c r="C55" s="71">
         <f>C48+C49</f>
         <v>263.95000000000005</v>
       </c>
-      <c r="D55" s="77">
+      <c r="D55" s="71">
         <f t="shared" ref="D55:G55" si="7">D48+D49</f>
         <v>7</v>
       </c>
-      <c r="E55" s="77">
+      <c r="E55" s="71">
         <f t="shared" si="7"/>
         <v>22.24</v>
       </c>
-      <c r="F55" s="77">
+      <c r="F55" s="71">
         <f t="shared" si="7"/>
         <v>110.2</v>
       </c>
-      <c r="G55" s="77">
+      <c r="G55" s="71">
         <f t="shared" si="7"/>
         <v>4.2</v>
       </c>
       <c r="H55" s="37"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="134" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="134"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="144"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
-      <c r="C61" s="81" t="s">
+      <c r="C61" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="82" t="s">
+      <c r="D61" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="E61" s="83" t="s">
+      <c r="E61" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="84" t="s">
+      <c r="F61" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="85" t="s">
+      <c r="G61" s="79" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C62" s="78">
+      <c r="C62" s="72">
         <v>16</v>
       </c>
-      <c r="D62" s="79">
+      <c r="D62" s="73">
         <v>1</v>
       </c>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79">
+      <c r="E62" s="73"/>
+      <c r="F62" s="73">
         <v>5</v>
       </c>
-      <c r="G62" s="80"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G62" s="74"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
         <v>224</v>
       </c>
@@ -7922,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="40" t="s">
         <v>135</v>
       </c>
@@ -7932,9 +8889,9 @@
       <c r="F64" s="53">
         <v>1</v>
       </c>
-      <c r="G64" s="54"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="41"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="40" t="s">
         <v>25</v>
       </c>
@@ -7945,12 +8902,12 @@
       <c r="E65" s="53">
         <v>2</v>
       </c>
-      <c r="F65" s="56">
+      <c r="F65" s="55">
         <v>13</v>
       </c>
-      <c r="G65" s="54"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G65" s="41"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="40" t="s">
         <v>144</v>
       </c>
@@ -7960,9 +8917,9 @@
       <c r="D66" s="53"/>
       <c r="E66" s="53"/>
       <c r="F66" s="53"/>
-      <c r="G66" s="54"/>
-    </row>
-    <row r="67" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="41"/>
+    </row>
+    <row r="67" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="40" t="s">
         <v>129</v>
       </c>
@@ -7972,97 +8929,97 @@
       <c r="D67" s="53"/>
       <c r="E67" s="53"/>
       <c r="F67" s="53"/>
-      <c r="G67" s="54"/>
-    </row>
-    <row r="68" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="76" t="s">
+      <c r="G67" s="41"/>
+    </row>
+    <row r="68" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="77">
+      <c r="C68" s="71">
         <f>C62+C63</f>
         <v>22</v>
       </c>
-      <c r="D68" s="77">
+      <c r="D68" s="71">
         <f t="shared" ref="D68:G68" si="13">D62+D63</f>
         <v>1</v>
       </c>
-      <c r="E68" s="77">
+      <c r="E68" s="71">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="F68" s="77">
+      <c r="F68" s="71">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="G68" s="77">
+      <c r="G68" s="71">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76" t="s">
+    <row r="69" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77">
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71">
         <v>4</v>
       </c>
-      <c r="F70" s="77">
+      <c r="F70" s="71">
         <v>4</v>
       </c>
-      <c r="G70" s="77"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="134" t="s">
+      <c r="G70" s="71"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="134"/>
-      <c r="D72" s="134"/>
-      <c r="E72" s="134"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="134"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C72" s="144"/>
+      <c r="D72" s="144"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="144"/>
+      <c r="G72" s="144"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="6"/>
-      <c r="C75" s="81" t="s">
+      <c r="C75" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="82" t="s">
+      <c r="D75" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="83" t="s">
+      <c r="E75" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F75" s="84" t="s">
+      <c r="F75" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="85" t="s">
+      <c r="G75" s="79" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="78">
+      <c r="C76" s="72">
         <v>21</v>
       </c>
-      <c r="D76" s="79">
+      <c r="D76" s="73">
         <v>1</v>
       </c>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79">
+      <c r="E76" s="73"/>
+      <c r="F76" s="73">
         <v>5</v>
       </c>
-      <c r="G76" s="80"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="74"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="39" t="s">
         <v>224</v>
       </c>
@@ -8087,109 +9044,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C78" s="55"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56">
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55">
         <v>1</v>
       </c>
-      <c r="G78" s="57"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G78" s="56"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="54">
         <v>7</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56">
+      <c r="D79" s="55"/>
+      <c r="E79" s="55">
         <v>2</v>
       </c>
-      <c r="F79" s="56">
+      <c r="F79" s="55">
         <v>15</v>
       </c>
-      <c r="G79" s="57"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G79" s="56"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="54">
         <v>1</v>
       </c>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="57"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="56"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="55"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="57">
+      <c r="C81" s="54"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="54">
         <v>1</v>
       </c>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="57"/>
-    </row>
-    <row r="83" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="76" t="s">
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="56"/>
+    </row>
+    <row r="83" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="C83" s="77">
+      <c r="C83" s="71">
         <f>C77+C76</f>
         <v>30</v>
       </c>
-      <c r="D83" s="77">
+      <c r="D83" s="71">
         <f t="shared" ref="D83:G83" si="15">D77+D76</f>
         <v>1</v>
       </c>
-      <c r="E83" s="77">
+      <c r="E83" s="71">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="F83" s="77">
+      <c r="F83" s="71">
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-      <c r="G83" s="77">
+      <c r="G83" s="71">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="76" t="s">
+    <row r="84" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="C85" s="77"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="77">
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71">
         <v>5</v>
       </c>
-      <c r="F85" s="77">
+      <c r="F85" s="71">
         <v>4</v>
       </c>
-      <c r="G85" s="77"/>
+      <c r="G85" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="6">
